--- a/biology/Zoologie/Erica_eugenia/Erica_eugenia.xlsx
+++ b/biology/Zoologie/Erica_eugenia/Erica_eugenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erica eugenia, unique représentant du genre Erica, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erica eugenia, unique représentant du genre Erica, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Pérou, en Bolivie, au Brésil et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Panama, au Pérou, en Bolivie, au Brésil et en Argentine.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 4 mm et la femelle syntype 4,3 mm[2].
-Les mâles mesurent de 3,9 à 4,0 mm et les femelles de 4,1 à 4,3 mm[3].
-Cette araignée est myrmécomorphe[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 4 mm et la femelle syntype 4,3 mm.
+Les mâles mesurent de 3,9 à 4,0 mm et les femelles de 4,1 à 4,3 mm.
+Cette araignée est myrmécomorphe.
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Peckham et Peckham en 1892.
-Sarinda scutata[4] a été placée en synonymie par Galiano en 1965[5].
-Apatita tristis[6] a été placée en synonymie par Galiano en 1980[7].
+Sarinda scutata a été placée en synonymie par Galiano en 1965.
+Apatita tristis a été placée en synonymie par Galiano en 1980.
 Ce genre a été décrit par Peckham et Peckham en 1892 dans les Attidae.
-Apatita[6] a été placé en synonymie par Galiano en 1980[7].
+Apatita a été placé en synonymie par Galiano en 1980.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peckham &amp; Peckham, 1892 : « Ant-like spiders of the family Attidae. » Occasional Papers of the Natural History Society of Wisconsin, vol. 2, no 1, p. 1-84 (texte intégral).</t>
         </is>
